--- a/TAP_np_lookup.xlsx
+++ b/TAP_np_lookup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sweelyb\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sweelyb\Documents\Letter_Automation - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E1CB4B-6CBA-41FF-89E0-1A38597D706F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A42179-3626-40ED-8308-5C454FE93A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="18" xr2:uid="{F768D9E1-06F8-4064-9FCA-8E461A3C394F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="18" xr2:uid="{F768D9E1-06F8-4064-9FCA-8E461A3C394F}"/>
   </bookViews>
   <sheets>
     <sheet name="moca" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="4">
+  <si>
+    <t>mean_m</t>
+  </si>
+  <si>
+    <t>sd_m</t>
+  </si>
+  <si>
+    <t>mean_f</t>
+  </si>
+  <si>
+    <t>sd_f</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,291 +415,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F606E30E-3224-48E7-B12B-F2D3A3D80508}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>26.9</v>
-      </c>
-      <c r="B1">
-        <v>2.4</v>
-      </c>
-      <c r="C1">
-        <v>27.4</v>
-      </c>
-      <c r="D1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="B2">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="C2">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="D2">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="B3">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="C3">
-        <v>27.5</v>
+        <v>26.4</v>
       </c>
       <c r="D3">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="B4">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="C4">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>25.4</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="C5">
-        <v>25.2</v>
+        <v>27.8</v>
       </c>
       <c r="D5">
-        <v>3.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="B6">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="C6">
-        <v>25.9</v>
+        <v>25.2</v>
       </c>
       <c r="D6">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>26.4</v>
+        <v>25.7</v>
       </c>
       <c r="B7">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>25.9</v>
       </c>
       <c r="D7">
-        <v>2.2000000000000002</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>27.1</v>
+        <v>26.4</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C8">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>24.8</v>
+        <v>27.1</v>
       </c>
       <c r="B9">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>24.8</v>
+        <v>27.5</v>
       </c>
       <c r="D9">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="B10">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="C10">
-        <v>25.5</v>
+        <v>24.8</v>
       </c>
       <c r="D10">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>26</v>
+        <v>24.6</v>
       </c>
       <c r="B11">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="C11">
-        <v>26.4</v>
+        <v>25.5</v>
       </c>
       <c r="D11">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="D12">
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>23.1</v>
+        <v>26.5</v>
       </c>
       <c r="B13">
-        <v>3.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C13">
-        <v>23.3</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>4.7</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="B14">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="C14">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="D14">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="B15">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="C15">
-        <v>25.8</v>
+        <v>24.7</v>
       </c>
       <c r="D15">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>25.9</v>
+        <v>25.3</v>
       </c>
       <c r="B16">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="C16">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="D16">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>23.8</v>
+        <v>25.9</v>
       </c>
       <c r="B17">
-        <v>3.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C17">
-        <v>21.3</v>
+        <v>25.9</v>
       </c>
       <c r="D17">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="B18">
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="C18">
-        <v>24.1</v>
+        <v>21.3</v>
       </c>
       <c r="D18">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="B19">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C19">
-        <v>25.1</v>
+        <v>24.1</v>
       </c>
       <c r="D19">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>23.5</v>
+      </c>
+      <c r="B20">
+        <v>2.5</v>
+      </c>
+      <c r="C20">
         <v>25.1</v>
       </c>
-      <c r="B20">
+      <c r="D20">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>25.1</v>
+      </c>
+      <c r="B21">
         <v>2.4</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>24.5</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>3.1</v>
       </c>
     </row>
@@ -694,26 +725,26 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA207C7E-4A08-43E1-B06A-582D7CE4BAE3}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>7.3</v>
-      </c>
-      <c r="B1">
-        <v>2.8</v>
-      </c>
-      <c r="C1">
-        <v>6.9</v>
-      </c>
-      <c r="D1">
-        <v>2.1</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,38 +752,38 @@
         <v>7.3</v>
       </c>
       <c r="B2">
-        <v>2.2999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="C2">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="D2">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="B3">
         <v>2.2999999999999998</v>
       </c>
       <c r="C3">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="D3">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="B4">
         <v>2.2999999999999998</v>
       </c>
       <c r="C4">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="D4">
         <v>2.2000000000000002</v>
@@ -760,13 +791,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>6.2</v>
+        <v>8.6</v>
       </c>
       <c r="B5">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C5">
-        <v>6.2</v>
+        <v>7.9</v>
       </c>
       <c r="D5">
         <v>2.2000000000000002</v>
@@ -774,97 +805,97 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="B6">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="C6">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="D6">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="C7">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="D7">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>7.3</v>
+      </c>
+      <c r="D8">
         <v>2.2000000000000002</v>
-      </c>
-      <c r="C8">
-        <v>7.5</v>
-      </c>
-      <c r="D8">
-        <v>2.1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6.1</v>
+        <v>7.9</v>
       </c>
       <c r="B9">
         <v>2.2000000000000002</v>
       </c>
       <c r="C9">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="D9">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C10">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="B11">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D11">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="B12">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C12">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>2.1</v>
@@ -872,13 +903,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5.0999999999999996</v>
+        <v>7.5</v>
       </c>
       <c r="B13">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C13">
-        <v>5.3</v>
+        <v>7.5</v>
       </c>
       <c r="D13">
         <v>2.1</v>
@@ -886,13 +917,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>6.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B14">
-        <v>2.2999999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="C14">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="D14">
         <v>2.1</v>
@@ -900,13 +931,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="D15">
         <v>2.1</v>
@@ -914,71 +945,85 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
         <v>2.1</v>
-      </c>
-      <c r="C16">
-        <v>6.9</v>
-      </c>
-      <c r="D16">
-        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="B17">
         <v>2.1</v>
       </c>
       <c r="C17">
-        <v>4.9000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="D17">
-        <v>1.8</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="B18">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="C18">
-        <v>5.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D18">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="C19">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="D19">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>6.3</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>6.8</v>
+      </c>
+      <c r="D20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>6.4</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>7</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>2.4</v>
       </c>
     </row>
@@ -989,26 +1034,26 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E695C1-FC65-4E12-900D-4C579C3C84FD}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B1">
-        <v>1.6</v>
-      </c>
-      <c r="C1">
-        <v>5</v>
-      </c>
-      <c r="D1">
-        <v>1.3</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1016,10 +1061,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B2">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="C2">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1.3</v>
@@ -1027,13 +1072,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B3">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C3">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="D3">
         <v>1.3</v>
@@ -1041,13 +1086,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="B4">
         <v>1.3</v>
       </c>
       <c r="C4">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="D4">
         <v>1.3</v>
@@ -1055,27 +1100,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4.5999999999999996</v>
+        <v>5.9</v>
       </c>
       <c r="B5">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C5">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="D5">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B6">
         <v>1.4</v>
       </c>
       <c r="C6">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="D6">
         <v>1.2</v>
@@ -1083,69 +1128,69 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="B7">
+        <v>1.4</v>
+      </c>
+      <c r="C7">
+        <v>4.8</v>
+      </c>
+      <c r="D7">
         <v>1.2</v>
-      </c>
-      <c r="C7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D7">
-        <v>1.3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="B8">
+        <v>1.2</v>
+      </c>
+      <c r="C8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D8">
         <v>1.3</v>
-      </c>
-      <c r="C8">
-        <v>5.3</v>
-      </c>
-      <c r="D8">
-        <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="B9">
         <v>1.3</v>
       </c>
       <c r="C9">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="D9">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="B10">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C10">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="D10">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5.0999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="B11">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="D11">
         <v>1.2</v>
@@ -1153,13 +1198,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B12">
         <v>1.3</v>
       </c>
       <c r="C12">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>1.2</v>
@@ -1167,49 +1212,49 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="B13">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="C13">
-        <v>4.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="D13">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4.5999999999999996</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C14">
-        <v>4.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D14">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B15">
         <v>1.2</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="D15">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="B16">
         <v>1.2</v>
@@ -1223,27 +1268,27 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B17">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C17">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="B18">
         <v>1.4</v>
       </c>
       <c r="C18">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D18">
         <v>1.1000000000000001</v>
@@ -1251,29 +1296,43 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B19">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C19">
-        <v>4.9000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="D19">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="B20">
         <v>1.3</v>
       </c>
       <c r="C20">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D20">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B21">
+        <v>1.3</v>
+      </c>
+      <c r="C21">
         <v>5</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>1.5</v>
       </c>
     </row>
@@ -1284,37 +1343,37 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9565F01E-3ABB-4FB5-A965-DD09B1F4E220}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>29</v>
-      </c>
-      <c r="B1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C1">
-        <v>28.9</v>
-      </c>
-      <c r="D1">
-        <v>2.2999999999999998</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>29.9</v>
+        <v>29</v>
       </c>
       <c r="B2">
-        <v>1.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="D2">
         <v>2.2999999999999998</v>
@@ -1322,139 +1381,139 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="B3">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="C3">
-        <v>29.9</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>1.8</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="B4">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="D4">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>29.6</v>
+        <v>30.7</v>
       </c>
       <c r="B5">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="C5">
-        <v>28.2</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="B6">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="C6">
-        <v>29.3</v>
+        <v>28.2</v>
       </c>
       <c r="D6">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>30.6</v>
+        <v>30.2</v>
       </c>
       <c r="B7">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="C7">
-        <v>30.1</v>
+        <v>29.3</v>
       </c>
       <c r="D7">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="B8">
         <v>1.9</v>
       </c>
       <c r="C8">
-        <v>30.5</v>
+        <v>30.1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>29.6</v>
+        <v>30.8</v>
       </c>
       <c r="B9">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="C9">
-        <v>28.3</v>
+        <v>30.5</v>
       </c>
       <c r="D9">
-        <v>2.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="B10">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C10">
-        <v>29.1</v>
+        <v>28.3</v>
       </c>
       <c r="D10">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>30.5</v>
+        <v>30.1</v>
       </c>
       <c r="B11">
         <v>1.8</v>
       </c>
       <c r="C11">
-        <v>29.9</v>
+        <v>29.1</v>
       </c>
       <c r="D11">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="B12">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="D12">
         <v>2.2999999999999998</v>
@@ -1462,113 +1521,127 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>28</v>
+        <v>30.7</v>
       </c>
       <c r="B13">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="C13">
-        <v>27.4</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>3.6</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="C14">
-        <v>28.5</v>
+        <v>27.4</v>
       </c>
       <c r="D14">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>1.9</v>
       </c>
       <c r="C15">
-        <v>29.4</v>
+        <v>28.5</v>
       </c>
       <c r="D15">
-        <v>2.2999999999999998</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="C16">
         <v>29.4</v>
       </c>
       <c r="D16">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>29.5</v>
+        <v>30.6</v>
       </c>
       <c r="B17">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>25.6</v>
+        <v>29.4</v>
       </c>
       <c r="D17">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>27</v>
+        <v>29.5</v>
       </c>
       <c r="B18">
-        <v>5.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C18">
-        <v>27.9</v>
+        <v>25.6</v>
       </c>
       <c r="D18">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>30.2</v>
+        <v>27</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="C19">
-        <v>28.8</v>
+        <v>27.9</v>
       </c>
       <c r="D19">
-        <v>2.2000000000000002</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>30.2</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>28.8</v>
+      </c>
+      <c r="D20">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>30.3</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>2.1</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>28.5</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>3.4</v>
       </c>
     </row>
@@ -1579,149 +1652,149 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFA152D-FE9C-41FF-9C14-7C3A49129CC5}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O34" sqref="O34:P35"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>14.5</v>
-      </c>
-      <c r="B1">
-        <v>5</v>
-      </c>
-      <c r="C1">
-        <v>14.6</v>
-      </c>
-      <c r="D1">
-        <v>4.0999999999999996</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="B2">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D2">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>15.9</v>
+        <v>14.2</v>
       </c>
       <c r="B3">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="C3">
-        <v>16.2</v>
+        <v>14.7</v>
       </c>
       <c r="D3">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="B4">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="C4">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>13.2</v>
+        <v>16.3</v>
       </c>
       <c r="B5">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="C5">
-        <v>13.1</v>
+        <v>16.7</v>
       </c>
       <c r="D5">
-        <v>4.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>13.2</v>
+      </c>
+      <c r="B6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C6">
         <v>13.1</v>
       </c>
-      <c r="B6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C6">
-        <v>14</v>
-      </c>
       <c r="D6">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>14.3</v>
+        <v>13.1</v>
       </c>
       <c r="B7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="C7">
-        <v>15.2</v>
-      </c>
-      <c r="D7">
-        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>15.6</v>
+        <v>14.3</v>
       </c>
       <c r="B8">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C8">
-        <v>16.100000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="D8">
-        <v>4.2</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11.9</v>
+        <v>15.6</v>
       </c>
       <c r="B9">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="C9">
-        <v>12.6</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D9">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12.7</v>
+        <v>11.9</v>
       </c>
       <c r="B10">
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C10">
-        <v>13.8</v>
+        <v>12.6</v>
       </c>
       <c r="D10">
         <v>4.5</v>
@@ -1729,27 +1802,27 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>14.1</v>
+        <v>12.7</v>
       </c>
       <c r="B11">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C11">
-        <v>14.7</v>
+        <v>13.8</v>
       </c>
       <c r="D11">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>15</v>
+        <v>14.1</v>
       </c>
       <c r="B12">
         <v>4.4000000000000004</v>
       </c>
       <c r="C12">
-        <v>15.8</v>
+        <v>14.7</v>
       </c>
       <c r="D12">
         <v>4.4000000000000004</v>
@@ -1757,113 +1830,127 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10.4</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C13">
-        <v>12.1</v>
+        <v>15.8</v>
       </c>
       <c r="D13">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.8</v>
+        <v>10.4</v>
       </c>
       <c r="B14">
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C14">
-        <v>13.6</v>
+        <v>12.1</v>
       </c>
       <c r="D14">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14.3</v>
+        <v>12.8</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C15">
-        <v>14.6</v>
+        <v>13.6</v>
       </c>
       <c r="D15">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15.6</v>
+        <v>14.3</v>
       </c>
       <c r="B16">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="D16">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>11.6</v>
+        <v>15.6</v>
       </c>
       <c r="B17">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="C17">
-        <v>11.7</v>
+        <v>15.2</v>
       </c>
       <c r="D17">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>9.3000000000000007</v>
+        <v>11.6</v>
       </c>
       <c r="B18">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="C18">
-        <v>12.5</v>
+        <v>11.7</v>
       </c>
       <c r="D18">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>11.7</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="B19">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="C19">
-        <v>14.3</v>
+        <v>12.5</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>11.7</v>
+      </c>
+      <c r="B20">
+        <v>3.5</v>
+      </c>
+      <c r="C20">
+        <v>14.3</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>15.6</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>6.2</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>14.2</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>3.9</v>
       </c>
     </row>
@@ -1874,93 +1961,93 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7772E27-0BF4-47AD-AD89-5EAF0264BEA4}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>13.9</v>
-      </c>
-      <c r="B1">
-        <v>5.2</v>
-      </c>
-      <c r="C1">
-        <v>13.5</v>
-      </c>
-      <c r="D1">
-        <v>4.0999999999999996</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>13</v>
+        <v>13.9</v>
       </c>
       <c r="B2">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="C2">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D2">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>15.1</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="C3">
-        <v>15.1</v>
+        <v>13.7</v>
       </c>
       <c r="D3">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="B4">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C4">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>12.1</v>
+        <v>15.4</v>
       </c>
       <c r="B5">
-        <v>5.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="C5">
-        <v>12.3</v>
+        <v>15.4</v>
       </c>
       <c r="D5">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C6">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="D6">
         <v>4.4000000000000004</v>
@@ -1968,83 +2055,83 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>13.4</v>
+        <v>12.4</v>
       </c>
       <c r="B7">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>14.5</v>
+        <v>13.1</v>
       </c>
       <c r="D7">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>14.9</v>
+        <v>13.4</v>
       </c>
       <c r="B8">
         <v>4.3</v>
       </c>
       <c r="C8">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11.1</v>
+        <v>14.9</v>
       </c>
       <c r="B9">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="C9">
-        <v>11.4</v>
+        <v>15.4</v>
       </c>
       <c r="D9">
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12.3</v>
+        <v>11.1</v>
       </c>
       <c r="B10">
-        <v>3.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C10">
-        <v>12.8</v>
+        <v>11.4</v>
       </c>
       <c r="D10">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="B11">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="C11">
-        <v>13.9</v>
+        <v>12.8</v>
       </c>
       <c r="D11">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>14.3</v>
+        <v>13.5</v>
       </c>
       <c r="B12">
         <v>4.2</v>
       </c>
       <c r="C12">
-        <v>14.9</v>
+        <v>13.9</v>
       </c>
       <c r="D12">
         <v>4.2</v>
@@ -2052,113 +2139,127 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9.9</v>
+        <v>14.3</v>
       </c>
       <c r="B13">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="C13">
-        <v>11.1</v>
+        <v>14.9</v>
       </c>
       <c r="D13">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.3</v>
+        <v>9.9</v>
       </c>
       <c r="B14">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C14">
-        <v>12.4</v>
+        <v>11.1</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="B15">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="C15">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="D15">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14.7</v>
+        <v>12.9</v>
       </c>
       <c r="B16">
+        <v>4.7</v>
+      </c>
+      <c r="C16">
+        <v>13.6</v>
+      </c>
+      <c r="D16">
         <v>4.0999999999999996</v>
-      </c>
-      <c r="C16">
-        <v>14.5</v>
-      </c>
-      <c r="D16">
-        <v>4.2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>12.4</v>
+        <v>14.7</v>
       </c>
       <c r="B17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C17">
+        <v>14.5</v>
+      </c>
+      <c r="D17">
         <v>4.2</v>
-      </c>
-      <c r="C17">
-        <v>10.9</v>
-      </c>
-      <c r="D17">
-        <v>3.9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>8.6</v>
+        <v>12.4</v>
       </c>
       <c r="B18">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="C18">
-        <v>11.8</v>
+        <v>10.9</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="B19">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="C19">
-        <v>12.9</v>
+        <v>11.8</v>
       </c>
       <c r="D19">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>10.5</v>
+      </c>
+      <c r="B20">
+        <v>3.8</v>
+      </c>
+      <c r="C20">
+        <v>12.9</v>
+      </c>
+      <c r="D20">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>14</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>6</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>13.2</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>3.7</v>
       </c>
     </row>
@@ -2169,37 +2270,121 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0648C9-9457-40E1-B25C-1C112656C2EA}">
-  <dimension ref="A7:D26"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>28.5</v>
+      </c>
+      <c r="B2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C2">
+        <v>28.2</v>
+      </c>
+      <c r="D2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>27.2</v>
+      </c>
+      <c r="B3">
+        <v>7.2</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>30.9</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>31.2</v>
+      </c>
+      <c r="D4">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>31.8</v>
+      </c>
+      <c r="B5">
+        <v>7.8</v>
+      </c>
+      <c r="C5">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C6">
+        <v>25.2</v>
+      </c>
+      <c r="D6">
+        <v>8.6</v>
+      </c>
+    </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>28.5</v>
+        <v>25.4</v>
       </c>
       <c r="B7">
-        <v>9.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="C7">
-        <v>28.2</v>
+        <v>27.1</v>
       </c>
       <c r="D7">
-        <v>7.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="B8">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>29.7</v>
       </c>
       <c r="D8">
         <v>8.4</v>
@@ -2207,253 +2392,183 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>30.9</v>
+        <v>30.5</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C9">
-        <v>31.2</v>
+        <v>31.4</v>
       </c>
       <c r="D9">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>31.8</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>23.9</v>
       </c>
       <c r="D10">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="B11">
-        <v>8.8000000000000007</v>
+        <v>7.1</v>
       </c>
       <c r="C11">
-        <v>25.2</v>
+        <v>26.6</v>
       </c>
       <c r="D11">
-        <v>8.6</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>25.4</v>
+        <v>27.4</v>
       </c>
       <c r="B12">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="C12">
-        <v>27.1</v>
+        <v>28.5</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>27.6</v>
+        <v>29.3</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="C13">
-        <v>29.7</v>
+        <v>30.6</v>
       </c>
       <c r="D13">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>30.5</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>8.3000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C14">
-        <v>31.4</v>
+        <v>23.1</v>
       </c>
       <c r="D14">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>23</v>
+        <v>24.6</v>
       </c>
       <c r="B15">
-        <v>8.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C15">
-        <v>23.9</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>24.9</v>
+        <v>27.2</v>
       </c>
       <c r="B16">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>26.6</v>
+        <v>28.2</v>
       </c>
       <c r="D16">
-        <v>8.3000000000000007</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>27.4</v>
+        <v>30.2</v>
       </c>
       <c r="B17">
         <v>7.8</v>
       </c>
       <c r="C17">
-        <v>28.5</v>
+        <v>29.7</v>
       </c>
       <c r="D17">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>29.3</v>
+        <v>24</v>
       </c>
       <c r="B18">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C18">
+        <v>22.6</v>
+      </c>
+      <c r="D18">
         <v>7.8</v>
-      </c>
-      <c r="C18">
-        <v>30.6</v>
-      </c>
-      <c r="D18">
-        <v>8.1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="B19">
-        <v>8.6999999999999993</v>
+        <v>3.2</v>
       </c>
       <c r="C19">
-        <v>23.1</v>
+        <v>24.3</v>
       </c>
       <c r="D19">
-        <v>8.6</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>24.6</v>
+        <v>22.3</v>
       </c>
       <c r="B20">
-        <v>8.1999999999999993</v>
+        <v>6.7</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>27.2</v>
       </c>
       <c r="D20">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>27.2</v>
+        <v>29.6</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="C21">
-        <v>28.2</v>
+        <v>27.4</v>
       </c>
       <c r="D21">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>30.2</v>
-      </c>
-      <c r="B22">
-        <v>7.8</v>
-      </c>
-      <c r="C22">
-        <v>29.7</v>
-      </c>
-      <c r="D22">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C23">
-        <v>22.6</v>
-      </c>
-      <c r="D23">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="B24">
-        <v>3.2</v>
-      </c>
-      <c r="C24">
-        <v>24.3</v>
-      </c>
-      <c r="D24">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>22.3</v>
-      </c>
-      <c r="B25">
-        <v>6.7</v>
-      </c>
-      <c r="C25">
-        <v>27.2</v>
-      </c>
-      <c r="D25">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>29.6</v>
-      </c>
-      <c r="B26">
-        <v>11.5</v>
-      </c>
-      <c r="C26">
-        <v>27.4</v>
-      </c>
-      <c r="D26">
         <v>6.9</v>
       </c>
     </row>
@@ -2464,291 +2579,305 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387F80F9-5AC3-479C-B6FE-EE5FF4A03185}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>21.7</v>
-      </c>
-      <c r="B1">
-        <v>5.3</v>
-      </c>
-      <c r="C1">
-        <v>21.7</v>
-      </c>
-      <c r="D1">
-        <v>4.8</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="B2">
-        <v>4.9000000000000004</v>
+        <v>5.3</v>
       </c>
       <c r="C2">
-        <v>22.4</v>
+        <v>21.7</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>23.6</v>
+        <v>22.2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C3">
-        <v>23.8</v>
+        <v>22.4</v>
       </c>
       <c r="D3">
-        <v>4.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>25.1</v>
+        <v>23.6</v>
       </c>
       <c r="B4">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>25.2</v>
+        <v>23.8</v>
       </c>
       <c r="D4">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>19.8</v>
+        <v>25.1</v>
       </c>
       <c r="B5">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="C5">
-        <v>18.8</v>
+        <v>25.2</v>
       </c>
       <c r="D5">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>21.7</v>
+        <v>19.8</v>
       </c>
       <c r="B6">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="C6">
-        <v>20.5</v>
+        <v>18.8</v>
       </c>
       <c r="D6">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="B7">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="C7">
-        <v>22.1</v>
+        <v>20.5</v>
       </c>
       <c r="D7">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>23.2</v>
+        <v>21.6</v>
       </c>
       <c r="B8">
+        <v>5.3</v>
+      </c>
+      <c r="C8">
+        <v>22.1</v>
+      </c>
+      <c r="D8">
         <v>5.4</v>
-      </c>
-      <c r="C8">
-        <v>23.7</v>
-      </c>
-      <c r="D8">
-        <v>5.6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>18.5</v>
+        <v>23.2</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="C9">
-        <v>18.399999999999999</v>
+        <v>23.7</v>
       </c>
       <c r="D9">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>19.399999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="B10">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>19.3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D10">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20.6</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="B11">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="C11">
-        <v>21.2</v>
+        <v>19.3</v>
       </c>
       <c r="D11">
-        <v>5.0999999999999996</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>21.7</v>
+        <v>20.6</v>
       </c>
       <c r="B12">
-        <v>5.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C12">
-        <v>22.3</v>
+        <v>21.2</v>
       </c>
       <c r="D12">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>16.399999999999999</v>
+        <v>21.7</v>
       </c>
       <c r="B13">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>22.3</v>
       </c>
       <c r="D13">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>18.3</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="B14">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="C14">
-        <v>17.8</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="B15">
-        <v>5.0999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="C15">
-        <v>20.100000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>20.6</v>
+        <v>18.5</v>
       </c>
       <c r="B16">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C16">
-        <v>20.5</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D16">
-        <v>5.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14.8</v>
+        <v>20.6</v>
       </c>
       <c r="B17">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="C17">
-        <v>13.6</v>
+        <v>20.5</v>
       </c>
       <c r="D17">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>14.1</v>
+        <v>14.8</v>
       </c>
       <c r="B18">
-        <v>4.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C18">
-        <v>17.600000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="D18">
-        <v>5.0999999999999996</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17.8</v>
+        <v>14.1</v>
       </c>
       <c r="B19">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D19">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>17.8</v>
+      </c>
+      <c r="B20">
+        <v>4.8</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>18.600000000000001</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>5.3</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>18.3</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -2759,291 +2888,305 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7853255E-571A-44AC-A940-3781F6291CAD}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>13.6</v>
-      </c>
-      <c r="B1">
-        <v>3.8</v>
-      </c>
-      <c r="C1">
-        <v>15.1</v>
-      </c>
-      <c r="D1">
-        <v>3.7</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="B2">
         <v>3.8</v>
       </c>
       <c r="C2">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D2">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="B3">
-        <v>4.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="C3">
-        <v>16.8</v>
+        <v>15.4</v>
       </c>
       <c r="D3">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>15.1</v>
+        <v>14.1</v>
       </c>
       <c r="B4">
-        <v>3.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C4">
-        <v>17.3</v>
+        <v>16.8</v>
       </c>
       <c r="D4">
-        <v>4.0999999999999996</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>13.1</v>
+        <v>15.1</v>
       </c>
       <c r="B5">
+        <v>3.8</v>
+      </c>
+      <c r="C5">
+        <v>17.3</v>
+      </c>
+      <c r="D5">
         <v>4.0999999999999996</v>
-      </c>
-      <c r="C5">
-        <v>14.5</v>
-      </c>
-      <c r="D5">
-        <v>3.9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="B6">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C6">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="D6">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="B7">
+        <v>4.3</v>
+      </c>
+      <c r="C7">
+        <v>15.4</v>
+      </c>
+      <c r="D7">
         <v>3.8</v>
-      </c>
-      <c r="C7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D7">
-        <v>3.9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>14.2</v>
+        <v>13.6</v>
       </c>
       <c r="B8">
         <v>3.8</v>
       </c>
       <c r="C8">
-        <v>17.2</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D8">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11.6</v>
+        <v>14.2</v>
       </c>
       <c r="B9">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="C9">
-        <v>14.1</v>
+        <v>17.2</v>
       </c>
       <c r="D9">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="B10">
         <v>3.5</v>
       </c>
       <c r="C10">
-        <v>14.8</v>
+        <v>14.1</v>
       </c>
       <c r="D10">
-        <v>3.7</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>13</v>
+        <v>11.9</v>
       </c>
       <c r="B11">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="C11">
-        <v>15.7</v>
+        <v>14.8</v>
       </c>
       <c r="D11">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>13.4</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="C12">
-        <v>16.2</v>
+        <v>15.7</v>
       </c>
       <c r="D12">
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10.199999999999999</v>
+        <v>13.4</v>
       </c>
       <c r="B13">
+        <v>4.2</v>
+      </c>
+      <c r="C13">
+        <v>16.2</v>
+      </c>
+      <c r="D13">
         <v>4.0999999999999996</v>
-      </c>
-      <c r="C13">
-        <v>12.9</v>
-      </c>
-      <c r="D13">
-        <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="B14">
-        <v>3.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C14">
-        <v>14.1</v>
+        <v>12.9</v>
       </c>
       <c r="D14">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="C15">
-        <v>14.9</v>
+        <v>14.1</v>
       </c>
       <c r="D15">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>12.7</v>
+        <v>11.5</v>
       </c>
       <c r="B16">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="D16">
-        <v>4.4000000000000004</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>9.6999999999999993</v>
+        <v>12.7</v>
       </c>
       <c r="B17">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="C17">
-        <v>11.5</v>
+        <v>15.2</v>
       </c>
       <c r="D17">
-        <v>3.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>9.3000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="B18">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="C18">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="D18">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>9.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="B19">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="C19">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="D19">
-        <v>4.0999999999999996</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>9.6</v>
+      </c>
+      <c r="B20">
+        <v>3.4</v>
+      </c>
+      <c r="C20">
+        <v>14.5</v>
+      </c>
+      <c r="D20">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>12.6</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>4.2</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>13.1</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>3.8</v>
       </c>
     </row>
@@ -3054,291 +3197,305 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C94958-6FF2-4D81-81D7-47862EADD525}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>26.3</v>
-      </c>
-      <c r="B1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C1">
-        <v>26</v>
-      </c>
-      <c r="D1">
-        <v>11.8</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="B2">
-        <v>8.3000000000000007</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C2">
-        <v>22.9</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>8.1</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>22.4</v>
+        <v>26.1</v>
       </c>
       <c r="B3">
         <v>8.3000000000000007</v>
       </c>
       <c r="C3">
-        <v>23.4</v>
+        <v>22.9</v>
       </c>
       <c r="D3">
-        <v>9.3000000000000007</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>23.1</v>
+        <v>22.4</v>
       </c>
       <c r="B4">
-        <v>12.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C4">
-        <v>22.8</v>
+        <v>23.4</v>
       </c>
       <c r="D4">
-        <v>8.5</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>37.1</v>
+        <v>23.1</v>
       </c>
       <c r="B5">
-        <v>20.6</v>
+        <v>12.8</v>
       </c>
       <c r="C5">
-        <v>35.299999999999997</v>
+        <v>22.8</v>
       </c>
       <c r="D5">
-        <v>18.600000000000001</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>32.6</v>
+        <v>37.1</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>20.6</v>
       </c>
       <c r="C6">
-        <v>30.6</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="D6">
-        <v>11.2</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>28.2</v>
+        <v>32.6</v>
       </c>
       <c r="B7">
-        <v>9.4</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>28.9</v>
+        <v>30.6</v>
       </c>
       <c r="D7">
-        <v>10.3</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>26.8</v>
+        <v>28.2</v>
       </c>
       <c r="B8">
-        <v>8.8000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="C8">
-        <v>27.2</v>
+        <v>28.9</v>
       </c>
       <c r="D8">
-        <v>9.1</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>38.6</v>
+        <v>26.8</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C9">
-        <v>39.700000000000003</v>
+        <v>27.2</v>
       </c>
       <c r="D9">
-        <v>20.9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>35.299999999999997</v>
+        <v>38.6</v>
       </c>
       <c r="B10">
-        <v>12.9</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>34.200000000000003</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="D10">
-        <v>11.4</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>32.5</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="B11">
-        <v>11.7</v>
+        <v>12.9</v>
       </c>
       <c r="C11">
-        <v>31.5</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="D11">
-        <v>10.7</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>30.9</v>
+        <v>32.5</v>
       </c>
       <c r="B12">
-        <v>10.9</v>
+        <v>11.7</v>
       </c>
       <c r="C12">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="D12">
-        <v>11.3</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>45.3</v>
+        <v>30.9</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>10.9</v>
       </c>
       <c r="C13">
-        <v>47.7</v>
+        <v>31.3</v>
       </c>
       <c r="D13">
-        <v>27.6</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>38.200000000000003</v>
+        <v>45.3</v>
       </c>
       <c r="B14">
-        <v>14.7</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>40.5</v>
+        <v>47.7</v>
       </c>
       <c r="D14">
-        <v>17.7</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>36.200000000000003</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="B15">
-        <v>12.8</v>
+        <v>14.7</v>
       </c>
       <c r="C15">
-        <v>35.1</v>
+        <v>40.5</v>
       </c>
       <c r="D15">
-        <v>13.5</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>34.5</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>12.8</v>
       </c>
       <c r="C16">
         <v>35.1</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>37.6</v>
+        <v>34.5</v>
       </c>
       <c r="B17">
-        <v>6.3</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>57.6</v>
+        <v>35.1</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>43.3</v>
+        <v>37.6</v>
       </c>
       <c r="B18">
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
       <c r="C18">
-        <v>41.8</v>
+        <v>57.6</v>
       </c>
       <c r="D18">
-        <v>25.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>40.200000000000003</v>
+        <v>43.3</v>
       </c>
       <c r="B19">
-        <v>14.9</v>
+        <v>7.8</v>
       </c>
       <c r="C19">
-        <v>44</v>
+        <v>41.8</v>
       </c>
       <c r="D19">
-        <v>17.600000000000001</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="B20">
+        <v>14.9</v>
+      </c>
+      <c r="C20">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>41.9</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>15.3</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>49.2</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>19.7</v>
       </c>
     </row>
@@ -3349,291 +3506,305 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255588F0-46C2-44CD-98BF-B7D4AFC925F9}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>74.3</v>
-      </c>
-      <c r="B1">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="C1">
-        <v>73.7</v>
-      </c>
-      <c r="D1">
-        <v>50.9</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>69.5</v>
+        <v>74.3</v>
       </c>
       <c r="B2">
-        <v>36.5</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="C2">
-        <v>61.6</v>
+        <v>73.7</v>
       </c>
       <c r="D2">
-        <v>27.9</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>55.7</v>
+        <v>69.5</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>36.5</v>
       </c>
       <c r="C3">
-        <v>55.7</v>
+        <v>61.6</v>
       </c>
       <c r="D3">
-        <v>24.8</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>53.2</v>
+        <v>55.7</v>
       </c>
       <c r="B4">
-        <v>25.3</v>
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>53.1</v>
+        <v>55.7</v>
       </c>
       <c r="D4">
-        <v>19.3</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>100.1</v>
+        <v>53.2</v>
       </c>
       <c r="B5">
-        <v>63.7</v>
+        <v>25.3</v>
       </c>
       <c r="C5">
-        <v>109.6</v>
+        <v>53.1</v>
       </c>
       <c r="D5">
-        <v>67.599999999999994</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>87.4</v>
+        <v>100.1</v>
       </c>
       <c r="B6">
-        <v>45.8</v>
+        <v>63.7</v>
       </c>
       <c r="C6">
-        <v>85.5</v>
+        <v>109.6</v>
       </c>
       <c r="D6">
-        <v>44.7</v>
+        <v>67.599999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>70.3</v>
+        <v>87.4</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>45.8</v>
       </c>
       <c r="C7">
-        <v>72.8</v>
+        <v>85.5</v>
       </c>
       <c r="D7">
-        <v>32.6</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>64.099999999999994</v>
+        <v>70.3</v>
       </c>
       <c r="B8">
-        <v>23.9</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>67.3</v>
+        <v>72.8</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>104.9</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="B9">
-        <v>52.3</v>
+        <v>23.9</v>
       </c>
       <c r="C9">
-        <v>119.7</v>
+        <v>67.3</v>
       </c>
       <c r="D9">
-        <v>69.400000000000006</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>94.3</v>
+        <v>104.9</v>
       </c>
       <c r="B10">
-        <v>47.3</v>
+        <v>52.3</v>
       </c>
       <c r="C10">
-        <v>98</v>
+        <v>119.7</v>
       </c>
       <c r="D10">
-        <v>51.7</v>
+        <v>69.400000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>85.1</v>
+        <v>94.3</v>
       </c>
       <c r="B11">
-        <v>38.299999999999997</v>
+        <v>47.3</v>
       </c>
       <c r="C11">
-        <v>82.8</v>
+        <v>98</v>
       </c>
       <c r="D11">
-        <v>37.299999999999997</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>76.099999999999994</v>
+        <v>85.1</v>
       </c>
       <c r="B12">
-        <v>30.2</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="C12">
-        <v>77.900000000000006</v>
+        <v>82.8</v>
       </c>
       <c r="D12">
-        <v>33.6</v>
+        <v>37.299999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>151.9</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="B13">
-        <v>76.7</v>
+        <v>30.2</v>
       </c>
       <c r="C13">
-        <v>135</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="D13">
-        <v>79.900000000000006</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>111</v>
+        <v>151.9</v>
       </c>
       <c r="B14">
-        <v>56.4</v>
+        <v>76.7</v>
       </c>
       <c r="C14">
-        <v>114.2</v>
+        <v>135</v>
       </c>
       <c r="D14">
-        <v>58.3</v>
+        <v>79.900000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>91.3</v>
+        <v>111</v>
       </c>
       <c r="B15">
-        <v>34.1</v>
+        <v>56.4</v>
       </c>
       <c r="C15">
-        <v>95.6</v>
+        <v>114.2</v>
       </c>
       <c r="D15">
-        <v>45.9</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>90.4</v>
+        <v>91.3</v>
       </c>
       <c r="B16">
-        <v>45.5</v>
+        <v>34.1</v>
       </c>
       <c r="C16">
-        <v>97.4</v>
+        <v>95.6</v>
       </c>
       <c r="D16">
-        <v>49</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>154.4</v>
+        <v>90.4</v>
       </c>
       <c r="B17">
-        <v>87.4</v>
+        <v>45.5</v>
       </c>
       <c r="C17">
-        <v>191.3</v>
+        <v>97.4</v>
       </c>
       <c r="D17">
-        <v>89.7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>117.9</v>
+        <v>154.4</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>87.4</v>
       </c>
       <c r="C18">
-        <v>110.9</v>
+        <v>191.3</v>
       </c>
       <c r="D18">
-        <v>58.5</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>130.80000000000001</v>
+        <v>117.9</v>
       </c>
       <c r="B19">
-        <v>66.8</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>136.69999999999999</v>
+        <v>110.9</v>
       </c>
       <c r="D19">
-        <v>62.1</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="B20">
+        <v>66.8</v>
+      </c>
+      <c r="C20">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="D20">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>113.4</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>49</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>139.30000000000001</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>73.900000000000006</v>
       </c>
     </row>
@@ -3644,121 +3815,121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8508DE-2971-4F2C-B735-07ED2A9FDACD}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>20.9</v>
-      </c>
-      <c r="B1">
-        <v>7.5</v>
-      </c>
-      <c r="C1">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="D1">
-        <v>6.9</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="B2">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="C2">
-        <v>21.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D2">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>22.4</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="C3">
-        <v>23.3</v>
+        <v>21.1</v>
       </c>
       <c r="D3">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>23.9</v>
+        <v>22.4</v>
       </c>
       <c r="B4">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C4">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="D4">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>19.600000000000001</v>
+        <v>23.9</v>
       </c>
       <c r="B5">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="C5">
-        <v>19.5</v>
+        <v>23.8</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>21.3</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="B6">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="C6">
-        <v>21.7</v>
+        <v>19.5</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="B7">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="C7">
-        <v>23.1</v>
+        <v>21.7</v>
       </c>
       <c r="D7">
-        <v>6.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>20.9</v>
+      </c>
+      <c r="B8">
+        <v>5.9</v>
+      </c>
+      <c r="C8">
         <v>23.1</v>
-      </c>
-      <c r="B8">
-        <v>6.1</v>
-      </c>
-      <c r="C8">
-        <v>24.5</v>
       </c>
       <c r="D8">
         <v>6.1</v>
@@ -3766,55 +3937,55 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>18.399999999999999</v>
+        <v>23.1</v>
       </c>
       <c r="B9">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="C9">
-        <v>19.2</v>
+        <v>24.5</v>
       </c>
       <c r="D9">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>20.3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="B10">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="C10">
-        <v>21.1</v>
+        <v>19.2</v>
       </c>
       <c r="D10">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>21.6</v>
+        <v>20.3</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C11">
-        <v>22.4</v>
+        <v>21.1</v>
       </c>
       <c r="D11">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="B12">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>23.4</v>
+        <v>22.4</v>
       </c>
       <c r="D12">
         <v>6.1</v>
@@ -3822,113 +3993,127 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>17.899999999999999</v>
+        <v>21.8</v>
       </c>
       <c r="B13">
+        <v>6.4</v>
+      </c>
+      <c r="C13">
+        <v>23.4</v>
+      </c>
+      <c r="D13">
         <v>6.1</v>
-      </c>
-      <c r="C13">
-        <v>17.2</v>
-      </c>
-      <c r="D13">
-        <v>7.1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>18.100000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="B14">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="C14">
-        <v>20.2</v>
+        <v>17.2</v>
       </c>
       <c r="D14">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>18.8</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="B15">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="C15">
-        <v>20.6</v>
+        <v>20.2</v>
       </c>
       <c r="D15">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>20.399999999999999</v>
+        <v>18.8</v>
       </c>
       <c r="B16">
         <v>6.2</v>
       </c>
       <c r="C16">
-        <v>21.6</v>
+        <v>20.6</v>
       </c>
       <c r="D16">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>18</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="B17">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="C17">
-        <v>15.9</v>
+        <v>21.6</v>
       </c>
       <c r="D17">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17.100000000000001</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="C18">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="D18">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19.8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19">
-        <v>18.399999999999999</v>
+        <v>16.2</v>
       </c>
       <c r="D19">
-        <v>7.7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>19.8</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D20">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>17.8</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>6.4</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>17.899999999999999</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>5.7</v>
       </c>
     </row>
@@ -3939,107 +4124,107 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947C01D0-21CE-44B5-9753-9468191D7CEA}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>15.1</v>
-      </c>
-      <c r="B1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C1">
-        <v>15</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="B2">
-        <v>3.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C2">
-        <v>15.8</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>16.7</v>
+        <v>15.6</v>
       </c>
       <c r="B3">
-        <v>4.0999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="C3">
-        <v>17.100000000000001</v>
+        <v>15.8</v>
       </c>
       <c r="D3">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>17.3</v>
+        <v>16.7</v>
       </c>
       <c r="B4">
-        <v>3.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C4">
-        <v>17.399999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D4">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>15.1</v>
+        <v>17.3</v>
       </c>
       <c r="B5">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="C5">
-        <v>14.5</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D5">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>16.100000000000001</v>
+        <v>15.1</v>
       </c>
       <c r="B6">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="C6">
-        <v>16.100000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="D6">
-        <v>3.6</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>15.9</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="B7">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D7">
         <v>3.6</v>
@@ -4047,86 +4232,86 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>17.100000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="B8">
         <v>3.5</v>
       </c>
       <c r="C8">
-        <v>17.899999999999999</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>13.7</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="B9">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="C9">
-        <v>14.3</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D9">
-        <v>4.4000000000000004</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>15.2</v>
+        <v>13.7</v>
       </c>
       <c r="B10">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="C10">
-        <v>15.6</v>
+        <v>14.3</v>
       </c>
       <c r="D10">
-        <v>3.9</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>16</v>
+        <v>15.2</v>
       </c>
       <c r="B11">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="C11">
-        <v>16.5</v>
+        <v>15.6</v>
       </c>
       <c r="D11">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="C12">
-        <v>17.100000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="D12">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13.5</v>
+        <v>16.2</v>
       </c>
       <c r="B13">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="C13">
-        <v>13.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D13">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4134,83 +4319,83 @@
         <v>13.5</v>
       </c>
       <c r="B14">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="C14">
-        <v>14.9</v>
+        <v>13.1</v>
       </c>
       <c r="D14">
-        <v>4.0999999999999996</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14.6</v>
+        <v>13.5</v>
       </c>
       <c r="B15">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="C15">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="D15">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15.3</v>
+        <v>14.6</v>
       </c>
       <c r="B16">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="C16">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D16">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>13.2</v>
+        <v>15.3</v>
       </c>
       <c r="B17">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="C17">
-        <v>12.2</v>
+        <v>15.9</v>
       </c>
       <c r="D17">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>13.6</v>
+        <v>13.2</v>
       </c>
       <c r="B18">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="C18">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D18">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>14.1</v>
+        <v>13.6</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="C19">
-        <v>13.8</v>
+        <v>12.5</v>
       </c>
       <c r="D19">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4218,12 +4403,26 @@
         <v>14.1</v>
       </c>
       <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>13.8</v>
+      </c>
+      <c r="D20">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>14.1</v>
+      </c>
+      <c r="B21">
         <v>3.8</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>13.5</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>3.7</v>
       </c>
     </row>
@@ -4234,51 +4433,51 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4981BB79-A02D-4D08-AECF-5F7667E96656}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>19</v>
-      </c>
-      <c r="B1">
-        <v>7.4</v>
-      </c>
-      <c r="C1">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="D1">
-        <v>7.2</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>18.2</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="C2">
-        <v>19.2</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D2">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>19.899999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="B3">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="C3">
-        <v>20.8</v>
+        <v>19.2</v>
       </c>
       <c r="D3">
         <v>6.5</v>
@@ -4286,13 +4485,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>22</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="B4">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C4">
-        <v>21.8</v>
+        <v>20.8</v>
       </c>
       <c r="D4">
         <v>6.5</v>
@@ -4300,128 +4499,128 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>16.899999999999999</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="C5">
-        <v>17.2</v>
+        <v>21.8</v>
       </c>
       <c r="D5">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>18.8</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="B6">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="C6">
-        <v>18.7</v>
+        <v>17.2</v>
       </c>
       <c r="D6">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>18.399999999999999</v>
+        <v>18.8</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C7">
-        <v>20.2</v>
+        <v>18.7</v>
       </c>
       <c r="D7">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>20.399999999999999</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>21.6</v>
+        <v>20.2</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>16.3</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="B9">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>16.399999999999999</v>
+        <v>21.6</v>
       </c>
       <c r="D9">
-        <v>6.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>17.5</v>
+        <v>16.3</v>
       </c>
       <c r="B10">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C10">
-        <v>18.3</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D10">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="B11">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="C11">
-        <v>19.399999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="D11">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>18.899999999999999</v>
+        <v>19</v>
       </c>
       <c r="B12">
+        <v>6.1</v>
+      </c>
+      <c r="C12">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D12">
         <v>6.4</v>
-      </c>
-      <c r="C12">
-        <v>20.7</v>
-      </c>
-      <c r="D12">
-        <v>6.3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>14.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>20.7</v>
       </c>
       <c r="D13">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4429,24 +4628,24 @@
         <v>14.9</v>
       </c>
       <c r="B14">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>17.100000000000001</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>16</v>
+        <v>14.9</v>
       </c>
       <c r="B15">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="C15">
-        <v>17.600000000000001</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D15">
         <v>7.1</v>
@@ -4454,71 +4653,85 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="C16">
-        <v>18.5</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D16">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15.7</v>
+        <v>17.5</v>
       </c>
       <c r="B17">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>12.7</v>
+        <v>18.5</v>
       </c>
       <c r="D17">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>14.6</v>
+        <v>15.7</v>
       </c>
       <c r="B18">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="C18">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="D18">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>16.7</v>
+        <v>14.6</v>
       </c>
       <c r="B19">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="C19">
-        <v>15.8</v>
+        <v>13.9</v>
       </c>
       <c r="D19">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>16.7</v>
+      </c>
+      <c r="B20">
+        <v>5.6</v>
+      </c>
+      <c r="C20">
+        <v>15.8</v>
+      </c>
+      <c r="D20">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>15.9</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>5.5</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>15.9</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>5.5</v>
       </c>
     </row>
@@ -4529,96 +4742,96 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0940413-7E07-45D3-8858-499FF8046E6F}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>14.4</v>
-      </c>
-      <c r="B1">
-        <v>4.8</v>
-      </c>
-      <c r="C1">
-        <v>14.1</v>
-      </c>
-      <c r="D1">
-        <v>4.2</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="B2">
+        <v>4.8</v>
+      </c>
+      <c r="C2">
+        <v>14.1</v>
+      </c>
+      <c r="D2">
         <v>4.2</v>
-      </c>
-      <c r="C2">
-        <v>15.1</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>15.8</v>
+        <v>14.5</v>
       </c>
       <c r="B3">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="C3">
-        <v>16.3</v>
+        <v>15.1</v>
       </c>
       <c r="D3">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>16.600000000000001</v>
+        <v>15.8</v>
       </c>
       <c r="B4">
-        <v>3.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>16.3</v>
       </c>
       <c r="D4">
-        <v>3.7</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>14</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="B5">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="C5">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="C6">
-        <v>14.8</v>
+        <v>13.5</v>
       </c>
       <c r="D6">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4626,10 +4839,10 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>14.8</v>
       </c>
       <c r="D7">
         <v>3.9</v>
@@ -4637,153 +4850,153 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>16.2</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>3.7</v>
       </c>
       <c r="C8">
-        <v>16.8</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>13</v>
+        <v>16.2</v>
       </c>
       <c r="B9">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>16.8</v>
       </c>
       <c r="D9">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>13.9</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="C10">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>14.9</v>
+        <v>13.9</v>
       </c>
       <c r="B11">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="C11">
-        <v>15.3</v>
+        <v>14.5</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="B12">
+        <v>3.7</v>
+      </c>
+      <c r="C12">
+        <v>15.3</v>
+      </c>
+      <c r="D12">
         <v>4</v>
-      </c>
-      <c r="C12">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="D12">
-        <v>3.7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11.9</v>
+        <v>15.1</v>
       </c>
       <c r="B13">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>11.4</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D13">
-        <v>5.0999999999999996</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="B14">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="C14">
-        <v>13.4</v>
+        <v>11.4</v>
       </c>
       <c r="D14">
-        <v>4.5</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13.2</v>
+        <v>12.2</v>
       </c>
       <c r="B15">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="C15">
-        <v>14.3</v>
+        <v>13.4</v>
       </c>
       <c r="D15">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14.1</v>
+        <v>13.2</v>
       </c>
       <c r="B16">
         <v>3.9</v>
       </c>
       <c r="C16">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="D16">
-        <v>4.0999999999999996</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>12.4</v>
+        <v>14.1</v>
       </c>
       <c r="B17">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="C17">
-        <v>10.4</v>
+        <v>14.7</v>
       </c>
       <c r="D17">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="B18">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="C18">
-        <v>11.3</v>
+        <v>10.4</v>
       </c>
       <c r="D18">
         <v>4.2</v>
@@ -4791,29 +5004,43 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="B19">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="C19">
-        <v>12.3</v>
+        <v>11.3</v>
       </c>
       <c r="D19">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>12.8</v>
+      </c>
+      <c r="B20">
+        <v>3.6</v>
+      </c>
+      <c r="C20">
+        <v>12.3</v>
+      </c>
+      <c r="D20">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>13.1</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>3.4</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>12.9</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -4824,110 +5051,110 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921DE400-D101-4697-9AC1-43215C3A8A8A}">
-  <dimension ref="A37:D56"/>
+  <dimension ref="A37:D57"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="A37" sqref="A37:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>15.2</v>
-      </c>
-      <c r="B37">
-        <v>1.2</v>
-      </c>
-      <c r="C37">
-        <v>15.4</v>
-      </c>
-      <c r="D37">
-        <v>1.2</v>
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="B38">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C38">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D38">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="B39">
+        <v>1.4</v>
+      </c>
+      <c r="C39">
+        <v>15.5</v>
+      </c>
+      <c r="D39">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="C39">
-        <v>15.8</v>
-      </c>
-      <c r="D39">
-        <v>1.4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="B40">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C40">
         <v>15.8</v>
       </c>
       <c r="D40">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>15.3</v>
+        <v>16</v>
       </c>
       <c r="B41">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="C41">
-        <v>15.1</v>
+        <v>15.8</v>
       </c>
       <c r="D41">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="B42">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C42">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D42">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="B43">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="C43">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D43">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4935,180 +5162,194 @@
         <v>15.7</v>
       </c>
       <c r="B44">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C44">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D44">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="B45">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C45">
-        <v>15.1</v>
+        <v>15.8</v>
       </c>
       <c r="D45">
-        <v>1.7</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="B46">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C46">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="D46">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="B47">
+        <v>1.3</v>
+      </c>
+      <c r="C47">
+        <v>15.3</v>
+      </c>
+      <c r="D47">
         <v>1.4</v>
-      </c>
-      <c r="C47">
-        <v>15.6</v>
-      </c>
-      <c r="D47">
-        <v>1.3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="B48">
         <v>1.4</v>
       </c>
       <c r="C48">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D48">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>14.6</v>
+        <v>15.5</v>
       </c>
       <c r="B49">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="C49">
-        <v>14.7</v>
+        <v>15.8</v>
       </c>
       <c r="D49">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="B50">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="C50">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="D50">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="B51">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="C51">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D51">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>15.1</v>
+      </c>
+      <c r="B52">
+        <v>1.5</v>
+      </c>
+      <c r="C52">
         <v>15.4</v>
       </c>
-      <c r="B52">
-        <v>1.3</v>
-      </c>
-      <c r="C52">
-        <v>15.6</v>
-      </c>
       <c r="D52">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>14</v>
+        <v>15.4</v>
       </c>
       <c r="B53">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="C53">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D53">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="C54">
-        <v>14.4</v>
+        <v>15.4</v>
       </c>
       <c r="D54">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="B55">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>15.4</v>
+        <v>14.4</v>
       </c>
       <c r="D55">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="B56">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C56">
         <v>15.4</v>
       </c>
       <c r="D56">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>15.9</v>
+      </c>
+      <c r="B57">
+        <v>1.4</v>
+      </c>
+      <c r="C57">
+        <v>15.4</v>
+      </c>
+      <c r="D57">
         <v>1.3</v>
       </c>
     </row>
@@ -5119,54 +5360,54 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753E1449-6C07-4E32-8E39-59DA2E6C280E}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>12.3</v>
-      </c>
-      <c r="B1">
-        <v>2.7</v>
-      </c>
-      <c r="C1">
-        <v>12.5</v>
-      </c>
-      <c r="D1">
-        <v>2.6</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="B2">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="C2">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="D2">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="B3">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="C3">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D3">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5174,27 +5415,27 @@
         <v>13.3</v>
       </c>
       <c r="B4">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="C4">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="D4">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>11.9</v>
+        <v>13.3</v>
       </c>
       <c r="B5">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12.9</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5202,55 +5443,55 @@
         <v>11.9</v>
       </c>
       <c r="B6">
+        <v>2.7</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
         <v>3</v>
-      </c>
-      <c r="C6">
-        <v>11.7</v>
-      </c>
-      <c r="D6">
-        <v>2.7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="B7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D7">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="D8">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11</v>
+        <v>12.4</v>
       </c>
       <c r="B9">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="C9">
-        <v>10.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5258,38 +5499,38 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="C10">
-        <v>10.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="D11">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="B12">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="C12">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="D12">
         <v>2.8</v>
@@ -5297,80 +5538,80 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9.3000000000000007</v>
+        <v>11.5</v>
       </c>
       <c r="B13">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="C13">
-        <v>8.6</v>
+        <v>11.3</v>
       </c>
       <c r="D13">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="B14">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="C14">
-        <v>9.8000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="D14">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="C15">
-        <v>10.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>11.1</v>
+        <v>10.4</v>
       </c>
       <c r="B16">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="D16">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>10.6</v>
+        <v>11.1</v>
       </c>
       <c r="B17">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>9.4</v>
+        <v>10.6</v>
       </c>
       <c r="B18">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -5381,29 +5622,43 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="B19">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="C19">
-        <v>10.3</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>10.7</v>
+        <v>9.5</v>
       </c>
       <c r="B20">
         <v>3.4</v>
       </c>
       <c r="C20">
+        <v>10.3</v>
+      </c>
+      <c r="D20">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10.7</v>
+      </c>
+      <c r="B21">
+        <v>3.4</v>
+      </c>
+      <c r="C21">
         <v>9.6</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>3.1</v>
       </c>
     </row>
@@ -5414,51 +5669,51 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFFF4A8-C4A5-4E57-B3A8-362E7217150D}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>8.5</v>
-      </c>
-      <c r="B1">
-        <v>2.5</v>
-      </c>
-      <c r="C1">
-        <v>7.8</v>
-      </c>
-      <c r="D1">
-        <v>2.2999999999999998</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8.3000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="B2">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="C2">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="D2">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>8.8000000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="B3">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C3">
-        <v>8.6999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="D3">
         <v>2.4</v>
@@ -5466,27 +5721,27 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="B4">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="C4">
-        <v>9.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D4">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="B5">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="C5">
-        <v>7.2</v>
+        <v>9.1</v>
       </c>
       <c r="D5">
         <v>2.2999999999999998</v>
@@ -5494,13 +5749,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="B6">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="C6">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="D6">
         <v>2.2999999999999998</v>
@@ -5508,13 +5763,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="C7">
-        <v>8.3000000000000007</v>
+        <v>7.8</v>
       </c>
       <c r="D7">
         <v>2.2999999999999998</v>
@@ -5522,13 +5777,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="B8">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="C8">
-        <v>8.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D8">
         <v>2.2999999999999998</v>
@@ -5536,13 +5791,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7.6</v>
+        <v>9.1</v>
       </c>
       <c r="B9">
         <v>2.4</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="D9">
         <v>2.2999999999999998</v>
@@ -5550,13 +5805,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="B10">
         <v>2.4</v>
       </c>
       <c r="C10">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>2.2999999999999998</v>
@@ -5564,55 +5819,55 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="B11">
+        <v>2.4</v>
+      </c>
+      <c r="C11">
+        <v>7.8</v>
+      </c>
+      <c r="D11">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="C11">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D11">
-        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>8.6999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="B12">
         <v>2.2999999999999998</v>
       </c>
       <c r="C12">
-        <v>8.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D12">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="B13">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C13">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="D13">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="B14">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="C14">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="D14">
         <v>2.1</v>
@@ -5620,10 +5875,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="B15">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C15">
         <v>7.9</v>
@@ -5634,71 +5889,85 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="B16">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C16">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="D16">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5.9</v>
+        <v>8.4</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="D17">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>8.6</v>
+        <v>5.9</v>
       </c>
       <c r="B18">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7.1</v>
+        <v>8.6</v>
       </c>
       <c r="B19">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="C19">
-        <v>8.1999999999999993</v>
+        <v>7.5</v>
       </c>
       <c r="D19">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="B20">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="C20">
         <v>8.1999999999999993</v>
       </c>
       <c r="D20">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8.1</v>
+      </c>
+      <c r="B21">
+        <v>2.5</v>
+      </c>
+      <c r="C21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D21">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -5709,65 +5978,65 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4527108-F020-4385-B2F1-46BCD56790E5}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>6.6</v>
-      </c>
-      <c r="B1">
-        <v>1.3</v>
-      </c>
-      <c r="C1">
-        <v>6.5</v>
-      </c>
-      <c r="D1">
-        <v>1.3</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="B2">
         <v>1.3</v>
       </c>
       <c r="C2">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D2">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="B3">
         <v>1.3</v>
       </c>
       <c r="C3">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="D3">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="B4">
         <v>1.3</v>
       </c>
       <c r="C4">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="D4">
         <v>1.3</v>
@@ -5775,13 +6044,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="B5">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C5">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="D5">
         <v>1.3</v>
@@ -5789,13 +6058,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="B6">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C6">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="D6">
         <v>1.3</v>
@@ -5803,13 +6072,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="B7">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C7">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="D7">
         <v>1.3</v>
@@ -5817,13 +6086,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="B8">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="C8">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D8">
         <v>1.3</v>
@@ -5831,41 +6100,41 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="B9">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C9">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="D9">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="B10">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="C10">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="D10">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="B11">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C11">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D11">
         <v>1.3</v>
@@ -5873,13 +6142,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="B12">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C12">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="D12">
         <v>1.3</v>
@@ -5887,13 +6156,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="B13">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="C13">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="D13">
         <v>1.3</v>
@@ -5901,27 +6170,27 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="B14">
         <v>1.3</v>
       </c>
       <c r="C14">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="D14">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="B15">
         <v>1.3</v>
       </c>
       <c r="C15">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D15">
         <v>1.2</v>
@@ -5929,13 +6198,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="B16">
         <v>1.3</v>
       </c>
       <c r="C16">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D16">
         <v>1.2</v>
@@ -5943,57 +6212,71 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="B17">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="C17">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="B18">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C18">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="D18">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="B19">
+        <v>1.5</v>
+      </c>
+      <c r="C19">
+        <v>6.3</v>
+      </c>
+      <c r="D19">
         <v>1.2</v>
-      </c>
-      <c r="C19">
-        <v>6.5</v>
-      </c>
-      <c r="D19">
-        <v>1.6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="B20">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C20">
         <v>6.5</v>
       </c>
       <c r="D20">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6.5</v>
+      </c>
+      <c r="B21">
+        <v>1.4</v>
+      </c>
+      <c r="C21">
+        <v>6.5</v>
+      </c>
+      <c r="D21">
         <v>1.4</v>
       </c>
     </row>
